--- a/public/template/template-travel.xlsx
+++ b/public/template/template-travel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hibrizi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19FC872-BDEF-4D24-8044-050C51CA6023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C037469-A4E6-4E85-9959-81AA788114D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A01BAFE1-9659-4408-B97E-069FFF078BA6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Penyelenggara</t>
   </si>
@@ -61,9 +61,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Jml_Akreditasi</t>
-  </si>
-  <si>
     <t>tanggal_akreditasi</t>
   </si>
   <si>
@@ -71,13 +68,112 @@
   </si>
   <si>
     <t>kab_kota</t>
+  </si>
+  <si>
+    <t>PT. BIRO PERJALANAN WISATA MUHSININ</t>
+  </si>
+  <si>
+    <t>U.32 Tahun 2020</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Kemenag</t>
+  </si>
+  <si>
+    <t>H. AHMAD MUHARIS</t>
+  </si>
+  <si>
+    <t>Jln. Kaktus No. 12 Gomong Barat Mataram Lingkungan Gomong Barat Kel. Gomong Kec. Selaparang Kota Mataram No. Telp. (0370) 7504434 Email : muhsinintour@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl.Gajah Mada Lingk.Jempong Barat RT/RW 001/184 kel.Jempong baru, Kec. Sekarbela Kota Mataram NTB tlp 03707504434/ 087864643262</t>
+  </si>
+  <si>
+    <t>08179101011</t>
+  </si>
+  <si>
+    <t>PIHK</t>
+  </si>
+  <si>
+    <t>MATARAM</t>
+  </si>
+  <si>
+    <t>PT. MAYYASAH WISATA MULYA</t>
+  </si>
+  <si>
+    <t>824 Tahun 2017      U.179 TAHUN 2021</t>
+  </si>
+  <si>
+    <t>08/02/2021</t>
+  </si>
+  <si>
+    <t>PT. IRQA INDONESIA</t>
+  </si>
+  <si>
+    <t>L. MUH. IKBAL ASARI</t>
+  </si>
+  <si>
+    <t>Jln. TGH. L. Muh. Faisal Kel. Tiwu Galih Kec. Praya Kab. Loteng Telp. 0370-653792 Email : ARY.LOMBOK85@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>082111999091</t>
+  </si>
+  <si>
+    <t>LOMBOK TENGAH</t>
+  </si>
+  <si>
+    <t>PT. MUDAHAN TILAH</t>
+  </si>
+  <si>
+    <t>U.192 Tahun 2020 / 91200065312390002</t>
+  </si>
+  <si>
+    <t>Hj. WIWIK APRIANI, SP.,MM</t>
+  </si>
+  <si>
+    <t>Jl. Aneka Raya No 3 RT. 02 Lingkungan Muhajirin Kel. Dasan Agung Kec. Selaparang Mataran NTB. HP. 087825005750 Email. mudahantilah@yahoo.com</t>
+  </si>
+  <si>
+    <t>PT. FAUZA WISATA IHSANI</t>
+  </si>
+  <si>
+    <t>U.35 TAHUN 2021</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H. NAZAMUDIN</t>
+  </si>
+  <si>
+    <t>Jalan raya  Pemepek-Sepakek Kilometer 18 RT.01 RW. 00 Kel/Desa Sepakek kecamatan Pringgarata Kab.Lombok Tengah NTB no.Telp (0370-6630112 /Hp. 082247229834 Email : fauzawisata@yahoo.com</t>
+  </si>
+  <si>
+    <t>082247229834</t>
+  </si>
+  <si>
+    <t>PPIU</t>
+  </si>
+  <si>
+    <t>087825005750</t>
+  </si>
+  <si>
+    <t>nilai_akreditasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-13809]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +189,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,23 +231,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -436,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7682ADC2-DFA5-4AAC-9C50-DBD151447664}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,13 +668,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -487,10 +692,181 @@
         <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="17">
+        <v>43901</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="20">
+        <v>43790</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="18">
+        <v>44299</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A5" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44825</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9">
+        <v>42515</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="19">
+        <v>44214</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13">
+        <v>44209</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
